--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Shank1</t>
+  </si>
+  <si>
+    <t>Sstr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Shank1</t>
-  </si>
-  <si>
-    <t>Sstr2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.02070466666666667</v>
+        <v>0.722518</v>
       </c>
       <c r="H2">
-        <v>0.062114</v>
+        <v>2.167554</v>
       </c>
       <c r="I2">
-        <v>0.02047726999623679</v>
+        <v>0.8269914115218494</v>
       </c>
       <c r="J2">
-        <v>0.02195705305904869</v>
+        <v>0.8542778251160489</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4219966666666666</v>
+        <v>0.065897</v>
       </c>
       <c r="N2">
-        <v>1.26599</v>
+        <v>0.197691</v>
       </c>
       <c r="O2">
-        <v>0.4621281864647206</v>
+        <v>0.06323422774762348</v>
       </c>
       <c r="P2">
-        <v>0.5201750201435876</v>
+        <v>0.0754133906251967</v>
       </c>
       <c r="Q2">
-        <v>0.008737300317777776</v>
+        <v>0.047611768646</v>
       </c>
       <c r="R2">
-        <v>0.07863570285999999</v>
+        <v>0.428505917814</v>
       </c>
       <c r="S2">
-        <v>0.009463123647109344</v>
+        <v>0.05229416326150124</v>
       </c>
       <c r="T2">
-        <v>0.01142151051728447</v>
+        <v>0.06442398732792007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02070466666666667</v>
+        <v>0.722518</v>
       </c>
       <c r="H3">
-        <v>0.062114</v>
+        <v>2.167554</v>
       </c>
       <c r="I3">
-        <v>0.02047726999623679</v>
+        <v>0.8269914115218494</v>
       </c>
       <c r="J3">
-        <v>0.02195705305904869</v>
+        <v>0.8542778251160489</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.05724133333333333</v>
+        <v>0.4219966666666666</v>
       </c>
       <c r="N3">
-        <v>0.171724</v>
+        <v>1.26599</v>
       </c>
       <c r="O3">
-        <v>0.06268493486715353</v>
+        <v>0.4049445851668202</v>
       </c>
       <c r="P3">
-        <v>0.07055864197911313</v>
+        <v>0.4829385171686762</v>
       </c>
       <c r="Q3">
-        <v>0.001185162726222222</v>
+        <v>0.3049001876066667</v>
       </c>
       <c r="R3">
-        <v>0.010666464536</v>
+        <v>2.74410168846</v>
       </c>
       <c r="S3">
-        <v>0.00128361633597122</v>
+        <v>0.3348856940752384</v>
       </c>
       <c r="T3">
-        <v>0.001549259845709807</v>
+        <v>0.4125636661116263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02070466666666667</v>
+        <v>0.722518</v>
       </c>
       <c r="H4">
-        <v>0.062114</v>
+        <v>2.167554</v>
       </c>
       <c r="I4">
-        <v>0.02047726999623679</v>
+        <v>0.8269914115218494</v>
       </c>
       <c r="J4">
-        <v>0.02195705305904869</v>
+        <v>0.8542778251160489</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.305701</v>
+        <v>0.049318</v>
       </c>
       <c r="N4">
-        <v>0.611402</v>
+        <v>0.147954</v>
       </c>
       <c r="O4">
-        <v>0.3347729019908173</v>
+        <v>0.04732515355869456</v>
       </c>
       <c r="P4">
-        <v>0.251215292115917</v>
+        <v>0.0564401656957593</v>
       </c>
       <c r="Q4">
-        <v>0.006329437304666666</v>
+        <v>0.035633142724</v>
       </c>
       <c r="R4">
-        <v>0.037976623828</v>
+        <v>0.320698284516</v>
       </c>
       <c r="S4">
-        <v>0.006855235101489681</v>
+        <v>0.03913749554199308</v>
       </c>
       <c r="T4">
-        <v>0.005515947498233604</v>
+        <v>0.04821558199976269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02070466666666667</v>
+        <v>0.722518</v>
       </c>
       <c r="H5">
-        <v>0.062114</v>
+        <v>2.167554</v>
       </c>
       <c r="I5">
-        <v>0.02047726999623679</v>
+        <v>0.8269914115218494</v>
       </c>
       <c r="J5">
-        <v>0.02195705305904869</v>
+        <v>0.8542778251160489</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1282203333333333</v>
+        <v>0.504898</v>
       </c>
       <c r="N5">
-        <v>0.384661</v>
+        <v>1.009796</v>
       </c>
       <c r="O5">
-        <v>0.1404139766773086</v>
+        <v>0.4844960335268617</v>
       </c>
       <c r="P5">
-        <v>0.1580510457613824</v>
+        <v>0.3852079265103678</v>
       </c>
       <c r="Q5">
-        <v>0.002654759261555555</v>
+        <v>0.364797893164</v>
       </c>
       <c r="R5">
-        <v>0.023892833354</v>
+        <v>2.188787358984</v>
       </c>
       <c r="S5">
-        <v>0.002875294911666543</v>
+        <v>0.4006740586431166</v>
       </c>
       <c r="T5">
-        <v>0.003470335197820806</v>
+        <v>0.3290745896767398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.722518</v>
+        <v>0.05411733333333333</v>
       </c>
       <c r="H6">
-        <v>2.167554</v>
+        <v>0.162352</v>
       </c>
       <c r="I6">
-        <v>0.7145826784528936</v>
+        <v>0.06194249815386159</v>
       </c>
       <c r="J6">
-        <v>0.7662217565501049</v>
+        <v>0.06398627829490788</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4219966666666666</v>
+        <v>0.065897</v>
       </c>
       <c r="N6">
-        <v>1.26599</v>
+        <v>0.197691</v>
       </c>
       <c r="O6">
-        <v>0.4621281864647206</v>
+        <v>0.06323422774762348</v>
       </c>
       <c r="P6">
-        <v>0.5201750201435876</v>
+        <v>0.0754133906251967</v>
       </c>
       <c r="Q6">
-        <v>0.3049001876066667</v>
+        <v>0.003566169914666666</v>
       </c>
       <c r="R6">
-        <v>2.74410168846</v>
+        <v>0.032095529232</v>
       </c>
       <c r="S6">
-        <v>0.3302287972725383</v>
+        <v>0.003916886035518031</v>
       </c>
       <c r="T6">
-        <v>0.3985694176479059</v>
+        <v>0.004825422199706433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.722518</v>
+        <v>0.05411733333333333</v>
       </c>
       <c r="H7">
-        <v>2.167554</v>
+        <v>0.162352</v>
       </c>
       <c r="I7">
-        <v>0.7145826784528936</v>
+        <v>0.06194249815386159</v>
       </c>
       <c r="J7">
-        <v>0.7662217565501049</v>
+        <v>0.06398627829490788</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05724133333333333</v>
+        <v>0.4219966666666666</v>
       </c>
       <c r="N7">
-        <v>0.171724</v>
+        <v>1.26599</v>
       </c>
       <c r="O7">
-        <v>0.06268493486715353</v>
+        <v>0.4049445851668202</v>
       </c>
       <c r="P7">
-        <v>0.07055864197911313</v>
+        <v>0.4829385171686762</v>
       </c>
       <c r="Q7">
-        <v>0.04135789367733333</v>
+        <v>0.02283733427555555</v>
       </c>
       <c r="R7">
-        <v>0.372221043096</v>
+        <v>0.20553600848</v>
       </c>
       <c r="S7">
-        <v>0.04479356865601575</v>
+        <v>0.02508327921911201</v>
       </c>
       <c r="T7">
-        <v>0.05406356659702603</v>
+        <v>0.03090143835888506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.722518</v>
+        <v>0.05411733333333333</v>
       </c>
       <c r="H8">
-        <v>2.167554</v>
+        <v>0.162352</v>
       </c>
       <c r="I8">
-        <v>0.7145826784528936</v>
+        <v>0.06194249815386159</v>
       </c>
       <c r="J8">
-        <v>0.7662217565501049</v>
+        <v>0.06398627829490788</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.305701</v>
+        <v>0.049318</v>
       </c>
       <c r="N8">
-        <v>0.611402</v>
+        <v>0.147954</v>
       </c>
       <c r="O8">
-        <v>0.3347729019908173</v>
+        <v>0.04732515355869456</v>
       </c>
       <c r="P8">
-        <v>0.251215292115917</v>
+        <v>0.0564401656957593</v>
       </c>
       <c r="Q8">
-        <v>0.220874475118</v>
+        <v>0.002668958645333333</v>
       </c>
       <c r="R8">
-        <v>1.325246850708</v>
+        <v>0.024020627808</v>
       </c>
       <c r="S8">
-        <v>0.2392229169780462</v>
+        <v>0.002931438236940654</v>
       </c>
       <c r="T8">
-        <v>0.1924866223973056</v>
+        <v>0.003611396149219568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.722518</v>
+        <v>0.05411733333333333</v>
       </c>
       <c r="H9">
-        <v>2.167554</v>
+        <v>0.162352</v>
       </c>
       <c r="I9">
-        <v>0.7145826784528936</v>
+        <v>0.06194249815386159</v>
       </c>
       <c r="J9">
-        <v>0.7662217565501049</v>
+        <v>0.06398627829490788</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1282203333333333</v>
+        <v>0.504898</v>
       </c>
       <c r="N9">
-        <v>0.384661</v>
+        <v>1.009796</v>
       </c>
       <c r="O9">
-        <v>0.1404139766773086</v>
+        <v>0.4844960335268617</v>
       </c>
       <c r="P9">
-        <v>0.1580510457613824</v>
+        <v>0.3852079265103678</v>
       </c>
       <c r="Q9">
-        <v>0.09264149879933332</v>
+        <v>0.02732373336533333</v>
       </c>
       <c r="R9">
-        <v>0.833773489194</v>
+        <v>0.163942400192</v>
       </c>
       <c r="S9">
-        <v>0.1003373955462933</v>
+        <v>0.03001089466229089</v>
       </c>
       <c r="T9">
-        <v>0.1211021499078675</v>
+        <v>0.02464802158709682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05406833333333333</v>
+        <v>0.0837175</v>
       </c>
       <c r="H10">
-        <v>0.162205</v>
+        <v>0.167435</v>
       </c>
       <c r="I10">
-        <v>0.05347450783622996</v>
+        <v>0.09582273866406156</v>
       </c>
       <c r="J10">
-        <v>0.0573388252478184</v>
+        <v>0.06598959363794657</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.4219966666666666</v>
+        <v>0.065897</v>
       </c>
       <c r="N10">
-        <v>1.26599</v>
+        <v>0.197691</v>
       </c>
       <c r="O10">
-        <v>0.4621281864647206</v>
+        <v>0.06323422774762348</v>
       </c>
       <c r="P10">
-        <v>0.5201750201435876</v>
+        <v>0.0754133906251967</v>
       </c>
       <c r="Q10">
-        <v>0.02281665643888888</v>
+        <v>0.0055167320975</v>
       </c>
       <c r="R10">
-        <v>0.20534990795</v>
+        <v>0.033100392585</v>
       </c>
       <c r="S10">
-        <v>0.02471207732845045</v>
+        <v>0.006059276880084275</v>
       </c>
       <c r="T10">
-        <v>0.02982622457829359</v>
+        <v>0.004976499002216459</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.0837175</v>
+      </c>
+      <c r="H11">
+        <v>0.167435</v>
+      </c>
+      <c r="I11">
+        <v>0.09582273866406156</v>
+      </c>
+      <c r="J11">
+        <v>0.06598959363794657</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.05406833333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.162205</v>
-      </c>
-      <c r="I11">
-        <v>0.05347450783622996</v>
-      </c>
-      <c r="J11">
-        <v>0.0573388252478184</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M11">
-        <v>0.05724133333333333</v>
+        <v>0.4219966666666666</v>
       </c>
       <c r="N11">
-        <v>0.171724</v>
+        <v>1.26599</v>
       </c>
       <c r="O11">
-        <v>0.06268493486715353</v>
+        <v>0.4049445851668202</v>
       </c>
       <c r="P11">
-        <v>0.07055864197911313</v>
+        <v>0.4829385171686762</v>
       </c>
       <c r="Q11">
-        <v>0.003094943491111111</v>
+        <v>0.03532850594166666</v>
       </c>
       <c r="R11">
-        <v>0.02785449142</v>
+        <v>0.21197103565</v>
       </c>
       <c r="S11">
-        <v>0.003352046040767166</v>
+        <v>0.03880289915786703</v>
       </c>
       <c r="T11">
-        <v>0.004045749642163751</v>
+        <v>0.03186891650007342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05406833333333333</v>
+        <v>0.0837175</v>
       </c>
       <c r="H12">
-        <v>0.162205</v>
+        <v>0.167435</v>
       </c>
       <c r="I12">
-        <v>0.05347450783622996</v>
+        <v>0.09582273866406156</v>
       </c>
       <c r="J12">
-        <v>0.0573388252478184</v>
+        <v>0.06598959363794657</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.305701</v>
+        <v>0.049318</v>
       </c>
       <c r="N12">
-        <v>0.611402</v>
+        <v>0.147954</v>
       </c>
       <c r="O12">
-        <v>0.3347729019908173</v>
+        <v>0.04732515355869456</v>
       </c>
       <c r="P12">
-        <v>0.251215292115917</v>
+        <v>0.0564401656957593</v>
       </c>
       <c r="Q12">
-        <v>0.01652874356833333</v>
+        <v>0.004128779665</v>
       </c>
       <c r="R12">
-        <v>0.09917246141</v>
+        <v>0.02477267799</v>
       </c>
       <c r="S12">
-        <v>0.0179018161708654</v>
+        <v>0.004534825821691371</v>
       </c>
       <c r="T12">
-        <v>0.01440438973421422</v>
+        <v>0.003724463599121528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05406833333333333</v>
+        <v>0.0837175</v>
       </c>
       <c r="H13">
-        <v>0.162205</v>
+        <v>0.167435</v>
       </c>
       <c r="I13">
-        <v>0.05347450783622996</v>
+        <v>0.09582273866406156</v>
       </c>
       <c r="J13">
-        <v>0.0573388252478184</v>
+        <v>0.06598959363794657</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1282203333333333</v>
+        <v>0.504898</v>
       </c>
       <c r="N13">
-        <v>0.384661</v>
+        <v>1.009796</v>
       </c>
       <c r="O13">
-        <v>0.1404139766773086</v>
+        <v>0.4844960335268617</v>
       </c>
       <c r="P13">
-        <v>0.1580510457613824</v>
+        <v>0.3852079265103678</v>
       </c>
       <c r="Q13">
-        <v>0.006932659722777777</v>
+        <v>0.04226879831499999</v>
       </c>
       <c r="R13">
-        <v>0.06239393750499999</v>
+        <v>0.16907519326</v>
       </c>
       <c r="S13">
-        <v>0.00750856829614695</v>
+        <v>0.04642573680441887</v>
       </c>
       <c r="T13">
-        <v>0.009062461293146857</v>
+        <v>0.02541971453653516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2044285</v>
+        <v>0.01331766666666667</v>
       </c>
       <c r="H14">
-        <v>0.408857</v>
+        <v>0.039953</v>
       </c>
       <c r="I14">
-        <v>0.2021832882808558</v>
+        <v>0.01524335166022736</v>
       </c>
       <c r="J14">
-        <v>0.1445293306269677</v>
+        <v>0.01574630295109672</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.4219966666666666</v>
+        <v>0.065897</v>
       </c>
       <c r="N14">
-        <v>1.26599</v>
+        <v>0.197691</v>
       </c>
       <c r="O14">
-        <v>0.4621281864647206</v>
+        <v>0.06323422774762348</v>
       </c>
       <c r="P14">
-        <v>0.5201750201435876</v>
+        <v>0.0754133906251967</v>
       </c>
       <c r="Q14">
-        <v>0.08626814557166666</v>
+        <v>0.0008775942803333334</v>
       </c>
       <c r="R14">
-        <v>0.5176088734300001</v>
+        <v>0.007898348523</v>
       </c>
       <c r="S14">
-        <v>0.0934345963467057</v>
+        <v>0.0009639015705199313</v>
       </c>
       <c r="T14">
-        <v>0.07518054747022214</v>
+        <v>0.001187482095353745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2044285</v>
+        <v>0.01331766666666667</v>
       </c>
       <c r="H15">
-        <v>0.408857</v>
+        <v>0.039953</v>
       </c>
       <c r="I15">
-        <v>0.2021832882808558</v>
+        <v>0.01524335166022736</v>
       </c>
       <c r="J15">
-        <v>0.1445293306269677</v>
+        <v>0.01574630295109672</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05724133333333333</v>
+        <v>0.4219966666666666</v>
       </c>
       <c r="N15">
-        <v>0.171724</v>
+        <v>1.26599</v>
       </c>
       <c r="O15">
-        <v>0.06268493486715353</v>
+        <v>0.4049445851668202</v>
       </c>
       <c r="P15">
-        <v>0.07055864197911313</v>
+        <v>0.4829385171686762</v>
       </c>
       <c r="Q15">
-        <v>0.01170175991133333</v>
+        <v>0.005620010941111111</v>
       </c>
       <c r="R15">
-        <v>0.07021055946800001</v>
+        <v>0.05058009847</v>
       </c>
       <c r="S15">
-        <v>0.01267384625711237</v>
+        <v>0.006172712714602728</v>
       </c>
       <c r="T15">
-        <v>0.01019779329518908</v>
+        <v>0.007604496198091401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2044285</v>
+        <v>0.01331766666666667</v>
       </c>
       <c r="H16">
-        <v>0.408857</v>
+        <v>0.039953</v>
       </c>
       <c r="I16">
-        <v>0.2021832882808558</v>
+        <v>0.01524335166022736</v>
       </c>
       <c r="J16">
-        <v>0.1445293306269677</v>
+        <v>0.01574630295109672</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.305701</v>
+        <v>0.049318</v>
       </c>
       <c r="N16">
-        <v>0.611402</v>
+        <v>0.147954</v>
       </c>
       <c r="O16">
-        <v>0.3347729019908173</v>
+        <v>0.04732515355869456</v>
       </c>
       <c r="P16">
-        <v>0.251215292115917</v>
+        <v>0.0564401656957593</v>
       </c>
       <c r="Q16">
-        <v>0.0624939968785</v>
+        <v>0.0006568006846666667</v>
       </c>
       <c r="R16">
-        <v>0.249975987514</v>
+        <v>0.005911206162000001</v>
       </c>
       <c r="S16">
-        <v>0.06768548615182809</v>
+        <v>0.0007213939580694415</v>
       </c>
       <c r="T16">
-        <v>0.03630797801277163</v>
+        <v>0.0008887239476555227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,309 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2044285</v>
+        <v>0.01331766666666667</v>
       </c>
       <c r="H17">
-        <v>0.408857</v>
+        <v>0.039953</v>
       </c>
       <c r="I17">
-        <v>0.2021832882808558</v>
+        <v>0.01524335166022736</v>
       </c>
       <c r="J17">
-        <v>0.1445293306269677</v>
+        <v>0.01574630295109672</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1282203333333333</v>
+        <v>0.504898</v>
       </c>
       <c r="N17">
-        <v>0.384661</v>
+        <v>1.009796</v>
       </c>
       <c r="O17">
-        <v>0.1404139766773086</v>
+        <v>0.4844960335268617</v>
       </c>
       <c r="P17">
-        <v>0.1580510457613824</v>
+        <v>0.3852079265103678</v>
       </c>
       <c r="Q17">
-        <v>0.02621189041283333</v>
+        <v>0.006724063264666666</v>
       </c>
       <c r="R17">
-        <v>0.157271342477</v>
+        <v>0.040344379588</v>
       </c>
       <c r="S17">
-        <v>0.02838935952520965</v>
+        <v>0.007385343417035257</v>
       </c>
       <c r="T17">
-        <v>0.02284301184878484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.009385333333333334</v>
-      </c>
-      <c r="H18">
-        <v>0.028156</v>
-      </c>
-      <c r="I18">
-        <v>0.009282255433783736</v>
-      </c>
-      <c r="J18">
-        <v>0.009953034516060387</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.4219966666666666</v>
-      </c>
-      <c r="N18">
-        <v>1.26599</v>
-      </c>
-      <c r="O18">
-        <v>0.4621281864647206</v>
-      </c>
-      <c r="P18">
-        <v>0.5201750201435876</v>
-      </c>
-      <c r="Q18">
-        <v>0.003960579382222222</v>
-      </c>
-      <c r="R18">
-        <v>0.03564521444</v>
-      </c>
-      <c r="S18">
-        <v>0.004289591869916777</v>
-      </c>
-      <c r="T18">
-        <v>0.005177319929881534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.009385333333333334</v>
-      </c>
-      <c r="H19">
-        <v>0.028156</v>
-      </c>
-      <c r="I19">
-        <v>0.009282255433783736</v>
-      </c>
-      <c r="J19">
-        <v>0.009953034516060387</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05724133333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.171724</v>
-      </c>
-      <c r="O19">
-        <v>0.06268493486715353</v>
-      </c>
-      <c r="P19">
-        <v>0.07055864197911313</v>
-      </c>
-      <c r="Q19">
-        <v>0.0005372289937777778</v>
-      </c>
-      <c r="R19">
-        <v>0.004835060944</v>
-      </c>
-      <c r="S19">
-        <v>0.0005818575772870154</v>
-      </c>
-      <c r="T19">
-        <v>0.0007022725990244603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.009385333333333334</v>
-      </c>
-      <c r="H20">
-        <v>0.028156</v>
-      </c>
-      <c r="I20">
-        <v>0.009282255433783736</v>
-      </c>
-      <c r="J20">
-        <v>0.009953034516060387</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.305701</v>
-      </c>
-      <c r="N20">
-        <v>0.611402</v>
-      </c>
-      <c r="O20">
-        <v>0.3347729019908173</v>
-      </c>
-      <c r="P20">
-        <v>0.251215292115917</v>
-      </c>
-      <c r="Q20">
-        <v>0.002869105785333333</v>
-      </c>
-      <c r="R20">
-        <v>0.017214634712</v>
-      </c>
-      <c r="S20">
-        <v>0.003107447588587814</v>
-      </c>
-      <c r="T20">
-        <v>0.002500354473391914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.009385333333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.028156</v>
-      </c>
-      <c r="I21">
-        <v>0.009282255433783736</v>
-      </c>
-      <c r="J21">
-        <v>0.009953034516060387</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1282203333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.384661</v>
-      </c>
-      <c r="O21">
-        <v>0.1404139766773086</v>
-      </c>
-      <c r="P21">
-        <v>0.1580510457613824</v>
-      </c>
-      <c r="Q21">
-        <v>0.001203390568444444</v>
-      </c>
-      <c r="R21">
-        <v>0.010830515116</v>
-      </c>
-      <c r="S21">
-        <v>0.00130335839799213</v>
-      </c>
-      <c r="T21">
-        <v>0.001573087513762479</v>
+        <v>0.006065600709996053</v>
       </c>
     </row>
   </sheetData>
